--- a/docs/inputs/concepts/data.xlsx
+++ b/docs/inputs/concepts/data.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA94260D-D36E-46A6-A0D9-D437F42294EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B144C3D-5ED7-494A-B99C-9B3F76E7F5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2796" yWindow="2088" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{98AC8309-9B2B-452A-A653-0B8699C1FFA8}"/>
   </bookViews>
@@ -456,6 +451,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -503,6 +499,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -585,6 +582,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -696,6 +694,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -831,5 +830,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/inputs/concepts/data.xlsx
+++ b/docs/inputs/concepts/data.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B144C3D-5ED7-494A-B99C-9B3F76E7F5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1D97C4-97D3-47E7-8F07-3B9C055AE468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2796" yWindow="2088" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{98AC8309-9B2B-452A-A653-0B8699C1FFA8}"/>
+    <workbookView xWindow="-156" yWindow="-156" windowWidth="23352" windowHeight="12672" activeTab="4" xr2:uid="{98AC8309-9B2B-452A-A653-0B8699C1FFA8}"/>
   </bookViews>
   <sheets>
-    <sheet name="0-dim" sheetId="2" r:id="rId1"/>
-    <sheet name="1-dim" sheetId="1" r:id="rId2"/>
-    <sheet name="2-dim" sheetId="3" r:id="rId3"/>
-    <sheet name="3-dim-1" sheetId="4" r:id="rId4"/>
-    <sheet name="3-dim-2" sheetId="5" r:id="rId5"/>
+    <sheet name="a" sheetId="2" r:id="rId1"/>
+    <sheet name="b" sheetId="1" r:id="rId2"/>
+    <sheet name="c" sheetId="3" r:id="rId3"/>
+    <sheet name="d" sheetId="4" r:id="rId4"/>
+    <sheet name="e" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
